--- a/power_report/stats_final.xlsx
+++ b/power_report/stats_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssef/Desktop/EDA/Dynamic_Power_Clock_Gating/OpenSTA_report_power/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssef/Desktop/EDA/Dynamic_Power_Clock_Gating/power_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32125EA-247F-174E-999C-4B6400CD864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C2F62E-44FE-B145-B9D3-00703E63B9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14160" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="82">
   <si>
     <t>module</t>
   </si>
@@ -706,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E9F32-DA16-8340-AAF9-07CE3C189777}">
-  <dimension ref="B2:R253"/>
+  <dimension ref="B2:R285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="57" workbookViewId="0">
-      <selection activeCell="H234" sqref="H234"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="57" workbookViewId="0">
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8323,6 +8323,367 @@
         <v>0.323871106196366</v>
       </c>
     </row>
+    <row r="268" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B268" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="s">
+        <v>67</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268" t="s">
+        <v>29</v>
+      </c>
+      <c r="G268" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B269" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C269">
+        <v>24</v>
+      </c>
+      <c r="D269" s="2">
+        <v>2.34347299999999E-3</v>
+      </c>
+      <c r="E269" s="2">
+        <v>1.7080590000000001E-3</v>
+      </c>
+      <c r="F269" s="2">
+        <v>6.3541399999999897E-4</v>
+      </c>
+      <c r="G269" s="3">
+        <v>0.27114201870471699</v>
+      </c>
+      <c r="H269" s="2"/>
+      <c r="I269" s="2"/>
+    </row>
+    <row r="270" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B270" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270">
+        <v>52</v>
+      </c>
+      <c r="D270" s="2">
+        <v>6.8951399999999897E-3</v>
+      </c>
+      <c r="E270" s="2">
+        <v>4.6589700000000001E-3</v>
+      </c>
+      <c r="F270" s="2">
+        <v>2.23616999999999E-3</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0.32431103646916498</v>
+      </c>
+      <c r="H270" s="2"/>
+      <c r="I270" s="2"/>
+    </row>
+    <row r="271" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B271" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C271">
+        <v>2048</v>
+      </c>
+      <c r="D271" s="2">
+        <v>4.1244749999999998E-3</v>
+      </c>
+      <c r="E271" s="2">
+        <v>4.2950149999999897E-3</v>
+      </c>
+      <c r="F271" s="2">
+        <v>-1.70539999999999E-4</v>
+      </c>
+      <c r="G271" s="3">
+        <v>-4.1348292813024601E-2</v>
+      </c>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+    </row>
+    <row r="272" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B272" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272">
+        <v>28</v>
+      </c>
+      <c r="D272" s="2">
+        <v>1.8847429999999998E-2</v>
+      </c>
+      <c r="E272" s="2">
+        <v>9.6023700000000007E-3</v>
+      </c>
+      <c r="F272" s="2">
+        <v>9.2450599999999994E-3</v>
+      </c>
+      <c r="G272" s="3">
+        <v>0.49052098880324702</v>
+      </c>
+      <c r="H272" s="2"/>
+      <c r="I272" s="2"/>
+    </row>
+    <row r="273" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B273" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273">
+        <v>375</v>
+      </c>
+      <c r="D273" s="2">
+        <v>6.3284000000000007E-2</v>
+      </c>
+      <c r="E273" s="2">
+        <v>4.83651999999999E-2</v>
+      </c>
+      <c r="F273" s="2">
+        <v>1.4918799999999999E-2</v>
+      </c>
+      <c r="G273" s="3">
+        <v>0.23574363188167599</v>
+      </c>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+    </row>
+    <row r="274" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B274" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274">
+        <v>450</v>
+      </c>
+      <c r="D274" s="2">
+        <v>1.36105599999999E-2</v>
+      </c>
+      <c r="E274" s="2">
+        <v>1.056435E-2</v>
+      </c>
+      <c r="F274" s="2">
+        <v>3.0462099999999902E-3</v>
+      </c>
+      <c r="G274" s="3">
+        <v>0.223812245785625</v>
+      </c>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+    </row>
+    <row r="275" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B275" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275">
+        <v>256</v>
+      </c>
+      <c r="D275" s="2">
+        <v>0.22724820000000001</v>
+      </c>
+      <c r="E275" s="2">
+        <v>0.15265970000000001</v>
+      </c>
+      <c r="F275" s="2">
+        <v>7.4588500000000002E-2</v>
+      </c>
+      <c r="G275" s="3">
+        <v>0.32822482202279202</v>
+      </c>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+    </row>
+    <row r="276" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B276" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276">
+        <v>247</v>
+      </c>
+      <c r="D276" s="2">
+        <v>3.3759819999999899E-2</v>
+      </c>
+      <c r="E276" s="2">
+        <v>2.2506000000000002E-2</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1.1253819999999901E-2</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0.33334952615268598</v>
+      </c>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+    </row>
+    <row r="277" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B277" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277">
+        <v>258</v>
+      </c>
+      <c r="D277" s="2">
+        <v>3.44922199999999E-2</v>
+      </c>
+      <c r="E277" s="2">
+        <v>2.371053E-2</v>
+      </c>
+      <c r="F277" s="2">
+        <v>1.0781689999999899E-2</v>
+      </c>
+      <c r="G277" s="3">
+        <v>0.31258324340967297</v>
+      </c>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+    </row>
+    <row r="278" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B278" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>74</v>
+      </c>
+      <c r="D278" s="2">
+        <v>7.6849700000000002E-3</v>
+      </c>
+      <c r="E278" s="2">
+        <v>5.3225900000000003E-3</v>
+      </c>
+      <c r="F278" s="2">
+        <v>2.3623799999999899E-3</v>
+      </c>
+      <c r="G278" s="3">
+        <v>0.30740263137006302</v>
+      </c>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+    </row>
+    <row r="279" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B279" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279">
+        <v>122</v>
+      </c>
+      <c r="D279" s="2">
+        <v>6.4256599999999902E-3</v>
+      </c>
+      <c r="E279" s="2">
+        <v>4.2091717999999997E-3</v>
+      </c>
+      <c r="F279" s="2">
+        <v>2.2164881999999901E-3</v>
+      </c>
+      <c r="G279" s="3">
+        <v>0.34494327430956501</v>
+      </c>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+    </row>
+    <row r="280" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B280" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C280">
+        <v>53</v>
+      </c>
+      <c r="D280" s="2">
+        <v>1.7744519999999999E-3</v>
+      </c>
+      <c r="E280" s="2">
+        <v>1.099685E-3</v>
+      </c>
+      <c r="F280" s="2">
+        <v>6.7476700000000005E-4</v>
+      </c>
+      <c r="G280" s="3">
+        <v>0.38026782353087002</v>
+      </c>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+    </row>
+    <row r="281" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B281" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C281">
+        <v>5</v>
+      </c>
+      <c r="D281" s="2">
+        <v>8.4253079999999897E-2</v>
+      </c>
+      <c r="E281" s="2">
+        <v>5.6124169999999897E-2</v>
+      </c>
+      <c r="F281" s="2">
+        <v>2.8128909999999899E-2</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0.33386209738563799</v>
+      </c>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+    </row>
+    <row r="282" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B282" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C282">
+        <v>32</v>
+      </c>
+      <c r="D282" s="2">
+        <v>7.8429799999999994E-3</v>
+      </c>
+      <c r="E282" s="2">
+        <v>5.3910499999999901E-3</v>
+      </c>
+      <c r="F282" s="2">
+        <v>2.4519300000000002E-3</v>
+      </c>
+      <c r="G282" s="3">
+        <v>0.31262734317822999</v>
+      </c>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+    </row>
+    <row r="283" spans="2:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="B283" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C283">
+        <v>64</v>
+      </c>
+      <c r="D283" s="2">
+        <v>3.1406629999999901E-2</v>
+      </c>
+      <c r="E283" s="2">
+        <v>2.1234929999999999E-2</v>
+      </c>
+      <c r="F283" s="2">
+        <v>1.01716999999999E-2</v>
+      </c>
+      <c r="G283" s="3">
+        <v>0.323871106196366</v>
+      </c>
+      <c r="H283" s="2"/>
+      <c r="I283" s="2"/>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G285" s="3">
+        <f>AVERAGE(G269:G283)</f>
+        <v>0.29875423309248589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
